--- a/Sprint 1/Package 1/Documentation/P01_JE_04_SysExp.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_04_SysExp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="59">
   <si>
     <t>IDSysExp</t>
   </si>
@@ -45,36 +45,12 @@
     <t>Professionel</t>
   </si>
   <si>
-    <t>WinXPFam</t>
-  </si>
-  <si>
-    <t>WinXPPro</t>
-  </si>
-  <si>
     <t>64bit</t>
   </si>
   <si>
     <t>32bit</t>
   </si>
   <si>
-    <t>Win7Start</t>
-  </si>
-  <si>
-    <t>Win7HomeBas</t>
-  </si>
-  <si>
-    <t>Win7HomePrem</t>
-  </si>
-  <si>
-    <t>Win7Pro</t>
-  </si>
-  <si>
-    <t>Win7Entr</t>
-  </si>
-  <si>
-    <t>Win7Ult</t>
-  </si>
-  <si>
     <t>Windows 7</t>
   </si>
   <si>
@@ -120,57 +96,15 @@
     <t>Win8.1</t>
   </si>
   <si>
-    <t>Win8Pro</t>
-  </si>
-  <si>
-    <t>Win8Entr</t>
-  </si>
-  <si>
     <t>Basic</t>
   </si>
   <si>
-    <t>Win8RT</t>
-  </si>
-  <si>
     <t>RT</t>
   </si>
   <si>
     <t>Professionnel</t>
   </si>
   <si>
-    <t>Win8.1Pro</t>
-  </si>
-  <si>
-    <t>Win8.1Entr</t>
-  </si>
-  <si>
-    <t>Win8.1RT</t>
-  </si>
-  <si>
-    <t>Win10home</t>
-  </si>
-  <si>
-    <t>Win10Pro</t>
-  </si>
-  <si>
-    <t>Win10Entr</t>
-  </si>
-  <si>
-    <t>Win10EntrLTSB</t>
-  </si>
-  <si>
-    <t>Win10Edu</t>
-  </si>
-  <si>
-    <t>Win10Mob</t>
-  </si>
-  <si>
-    <t>Win10MobEtr</t>
-  </si>
-  <si>
-    <t>Win10Core</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -210,21 +144,9 @@
     <t>Ps3</t>
   </si>
   <si>
-    <t>Ps4OS</t>
-  </si>
-  <si>
-    <t>Ps3OS</t>
-  </si>
-  <si>
     <t>XBox OS</t>
   </si>
   <si>
-    <t>XBoxOS</t>
-  </si>
-  <si>
-    <t>XBoxDash</t>
-  </si>
-  <si>
     <t>Xbox 360</t>
   </si>
   <si>
@@ -237,18 +159,12 @@
     <t>Système d'exploitation XBox 360</t>
   </si>
   <si>
-    <t>WiiUSys</t>
-  </si>
-  <si>
     <t>Wii U</t>
   </si>
   <si>
     <t>Système d'exploitation Wii U</t>
   </si>
   <si>
-    <t>3DSSys</t>
-  </si>
-  <si>
     <t>Wii U System Software</t>
   </si>
   <si>
@@ -259,6 +175,24 @@
   </si>
   <si>
     <t>Système d'exploitation 3DS</t>
+  </si>
+  <si>
+    <t>WinXP</t>
+  </si>
+  <si>
+    <t>Win7</t>
+  </si>
+  <si>
+    <t>Win10</t>
+  </si>
+  <si>
+    <t>XBox360</t>
+  </si>
+  <si>
+    <t>XboxOne</t>
+  </si>
+  <si>
+    <t>WiiU</t>
   </si>
 </sst>
 </file>
@@ -599,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -647,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -655,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -664,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -672,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -681,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -689,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -706,16 +640,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -723,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -740,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -757,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -774,16 +708,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -791,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -808,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -825,16 +759,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -842,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -859,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -876,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -893,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
         <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -910,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -927,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -944,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -961,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -978,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -995,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1012,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
         <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1029,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1046,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1063,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1080,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1097,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1114,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1131,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1148,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1165,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1182,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
         <v>19</v>
       </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1199,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1216,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1233,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1250,16 +1184,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1267,16 +1201,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1284,16 +1218,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
         <v>19</v>
       </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1301,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1318,16 +1252,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1335,16 +1269,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1352,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1369,16 +1303,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1386,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1403,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1420,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1437,16 +1371,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
         <v>20</v>
-      </c>
-      <c r="D49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1454,16 +1388,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
         <v>20</v>
-      </c>
-      <c r="D50" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1471,16 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
         <v>20</v>
-      </c>
-      <c r="D51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1488,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
         <v>20</v>
-      </c>
-      <c r="D52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1505,16 +1439,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1522,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1539,16 +1473,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1556,16 +1490,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1573,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1590,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1607,16 +1541,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1624,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1641,16 +1575,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1658,16 +1592,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1675,16 +1609,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1692,16 +1626,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1709,16 +1643,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1726,16 +1660,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1743,16 +1677,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1760,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1777,16 +1711,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1794,16 +1728,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1811,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1828,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1845,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1862,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1879,16 +1813,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1896,16 +1830,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -1913,16 +1847,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -1930,16 +1864,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F78" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 1/Package 1/Documentation/P01_JE_04_SysExp.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_04_SysExp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="93">
   <si>
     <t>IDSysExp</t>
   </si>
@@ -45,12 +45,36 @@
     <t>Professionel</t>
   </si>
   <si>
+    <t>WinXPFam</t>
+  </si>
+  <si>
+    <t>WinXPPro</t>
+  </si>
+  <si>
     <t>64bit</t>
   </si>
   <si>
     <t>32bit</t>
   </si>
   <si>
+    <t>Win7Start</t>
+  </si>
+  <si>
+    <t>Win7HomeBas</t>
+  </si>
+  <si>
+    <t>Win7HomePrem</t>
+  </si>
+  <si>
+    <t>Win7Pro</t>
+  </si>
+  <si>
+    <t>Win7Entr</t>
+  </si>
+  <si>
+    <t>Win7Ult</t>
+  </si>
+  <si>
     <t>Windows 7</t>
   </si>
   <si>
@@ -96,15 +120,57 @@
     <t>Win8.1</t>
   </si>
   <si>
+    <t>Win8Pro</t>
+  </si>
+  <si>
+    <t>Win8Entr</t>
+  </si>
+  <si>
     <t>Basic</t>
   </si>
   <si>
+    <t>Win8RT</t>
+  </si>
+  <si>
     <t>RT</t>
   </si>
   <si>
     <t>Professionnel</t>
   </si>
   <si>
+    <t>Win8.1Pro</t>
+  </si>
+  <si>
+    <t>Win8.1Entr</t>
+  </si>
+  <si>
+    <t>Win8.1RT</t>
+  </si>
+  <si>
+    <t>Win10home</t>
+  </si>
+  <si>
+    <t>Win10Pro</t>
+  </si>
+  <si>
+    <t>Win10Entr</t>
+  </si>
+  <si>
+    <t>Win10EntrLTSB</t>
+  </si>
+  <si>
+    <t>Win10Edu</t>
+  </si>
+  <si>
+    <t>Win10Mob</t>
+  </si>
+  <si>
+    <t>Win10MobEtr</t>
+  </si>
+  <si>
+    <t>Win10Core</t>
+  </si>
+  <si>
     <t>Home</t>
   </si>
   <si>
@@ -144,9 +210,21 @@
     <t>Ps3</t>
   </si>
   <si>
+    <t>Ps4OS</t>
+  </si>
+  <si>
+    <t>Ps3OS</t>
+  </si>
+  <si>
     <t>XBox OS</t>
   </si>
   <si>
+    <t>XBoxOS</t>
+  </si>
+  <si>
+    <t>XBoxDash</t>
+  </si>
+  <si>
     <t>Xbox 360</t>
   </si>
   <si>
@@ -159,12 +237,18 @@
     <t>Système d'exploitation XBox 360</t>
   </si>
   <si>
+    <t>WiiUSys</t>
+  </si>
+  <si>
     <t>Wii U</t>
   </si>
   <si>
     <t>Système d'exploitation Wii U</t>
   </si>
   <si>
+    <t>3DSSys</t>
+  </si>
+  <si>
     <t>Wii U System Software</t>
   </si>
   <si>
@@ -177,22 +261,40 @@
     <t>Système d'exploitation 3DS</t>
   </si>
   <si>
-    <t>WinXP</t>
-  </si>
-  <si>
-    <t>Win7</t>
-  </si>
-  <si>
-    <t>Win10</t>
-  </si>
-  <si>
-    <t>XBox360</t>
-  </si>
-  <si>
-    <t>XboxOne</t>
-  </si>
-  <si>
-    <t>WiiU</t>
+    <t>iOS9</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Système d'exploitation Apple</t>
+  </si>
+  <si>
+    <t>And5</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Lollipop 5.0</t>
+  </si>
+  <si>
+    <t>Système d'exploitation Android</t>
+  </si>
+  <si>
+    <t>iOS8</t>
+  </si>
+  <si>
+    <t>PSVitaOS</t>
+  </si>
+  <si>
+    <t>PlayStation Vita operating system</t>
+  </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>Système d'exploitation PS Vita</t>
   </si>
 </sst>
 </file>
@@ -239,6 +341,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -287,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -581,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -589,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -598,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -606,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -615,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -623,16 +728,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -640,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -657,16 +762,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -674,16 +779,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -691,16 +796,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -708,16 +813,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -725,16 +830,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -742,16 +847,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -759,16 +864,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -776,16 +881,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -793,16 +898,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -810,16 +915,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -827,16 +932,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -844,16 +949,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -861,16 +966,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -878,16 +983,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -895,16 +1000,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -912,16 +1017,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -929,16 +1034,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -946,16 +1051,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -963,16 +1068,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -980,16 +1085,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -997,16 +1102,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1014,16 +1119,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1031,16 +1136,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1048,16 +1153,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1065,16 +1170,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1082,16 +1187,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1099,16 +1204,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1116,16 +1221,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1133,16 +1238,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
         <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,16 +1255,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
         <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1167,16 +1272,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
         <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1184,16 +1289,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
         <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1201,16 +1306,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
         <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1218,16 +1323,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
         <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1235,16 +1340,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
         <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1252,16 +1357,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" t="s">
         <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1269,16 +1374,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
         <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1286,16 +1391,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
         <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1303,16 +1408,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1320,16 +1425,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1337,16 +1442,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1354,16 +1459,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1371,16 +1476,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1388,16 +1493,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s">
         <v>28</v>
-      </c>
-      <c r="E50" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1405,16 +1510,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1422,16 +1527,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1439,16 +1544,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1456,16 +1561,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1473,16 +1578,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1490,16 +1595,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1507,16 +1612,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1524,16 +1629,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1541,16 +1646,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1558,16 +1663,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1575,16 +1680,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1592,16 +1697,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1609,16 +1714,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
         <v>55</v>
       </c>
-      <c r="C63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" t="s">
-        <v>33</v>
-      </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1626,16 +1731,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1643,16 +1748,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1660,16 +1765,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1677,16 +1782,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1694,16 +1799,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1711,16 +1816,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1728,16 +1833,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1745,16 +1850,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
         <v>55</v>
       </c>
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s">
-        <v>33</v>
-      </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1762,16 +1867,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1779,16 +1884,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1796,16 +1901,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1813,16 +1918,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C75" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1830,16 +1935,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -1847,16 +1952,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -1864,16 +1969,84 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D78" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 1/Package 1/Documentation/P01_JE_04_SysExp.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_04_SysExp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="97">
   <si>
     <t>IDSysExp</t>
   </si>
@@ -267,9 +267,6 @@
     <t>iOS</t>
   </si>
   <si>
-    <t>Système d'exploitation Apple</t>
-  </si>
-  <si>
     <t>And5</t>
   </si>
   <si>
@@ -295,6 +292,21 @@
   </si>
   <si>
     <t>Système d'exploitation PS Vita</t>
+  </si>
+  <si>
+    <t>OSX</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Système d'exploitation pour mobile Apple</t>
+  </si>
+  <si>
+    <t>Système d'exploitation MAC</t>
   </si>
 </sst>
 </file>
@@ -636,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1995,7 +2007,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2003,16 +2015,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
         <v>84</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>85</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
         <v>86</v>
-      </c>
-      <c r="F80" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2020,7 +2032,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
@@ -2029,7 +2041,7 @@
         <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2037,16 +2049,33 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
         <v>89</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>90</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>91</v>
       </c>
-      <c r="F82" t="s">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
         <v>92</v>
+      </c>
+      <c r="C83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" t="s">
+        <v>94</v>
+      </c>
+      <c r="F83" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 1/Package 1/Documentation/P01_JE_04_SysExp.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_04_SysExp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -285,9 +285,6 @@
     <t>PSVitaOS</t>
   </si>
   <si>
-    <t>PlayStation Vita operating system</t>
-  </si>
-  <si>
     <t>Version 3</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>Système d'exploitation MAC</t>
+  </si>
+  <si>
+    <t>PSVita OS</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,7 +439,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -651,7 +651,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2007,7 +2007,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2041,7 +2041,7 @@
         <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2052,13 +2052,13 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" t="s">
         <v>89</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>90</v>
-      </c>
-      <c r="F82" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2066,16 +2066,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" t="s">
         <v>92</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>93</v>
       </c>
-      <c r="D83" t="s">
-        <v>94</v>
-      </c>
       <c r="F83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 1/Package 1/Documentation/P01_JE_04_SysExp.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_04_SysExp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -60,12 +60,6 @@
     <t>Win7Start</t>
   </si>
   <si>
-    <t>Win7HomeBas</t>
-  </si>
-  <si>
-    <t>Win7HomePrem</t>
-  </si>
-  <si>
     <t>Win7Pro</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>Win10Entr</t>
   </si>
   <si>
-    <t>Win10EntrLTSB</t>
-  </si>
-  <si>
     <t>Win10Edu</t>
   </si>
   <si>
@@ -307,6 +298,15 @@
   </si>
   <si>
     <t>PSVita OS</t>
+  </si>
+  <si>
+    <t>Win7HBas</t>
+  </si>
+  <si>
+    <t>Win7HPrem</t>
+  </si>
+  <si>
+    <t>Win10LTSB</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,7 +439,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,13 +743,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -757,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -774,16 +774,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -791,16 +791,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -825,16 +825,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -845,13 +845,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -859,16 +859,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -876,16 +876,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -893,16 +893,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -910,16 +910,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -927,16 +927,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
         <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -947,13 +947,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -961,16 +961,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -978,16 +978,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -995,16 +995,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1012,16 +1012,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1029,16 +1029,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1049,13 +1049,13 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1063,16 +1063,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1080,16 +1080,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1097,16 +1097,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1114,16 +1114,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1131,16 +1131,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1151,10 +1151,10 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -1165,13 +1165,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -1182,13 +1182,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -1199,13 +1199,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -1216,13 +1216,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -1233,13 +1233,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -1253,10 +1253,10 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1267,13 +1267,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1284,13 +1284,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1301,13 +1301,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -1318,13 +1318,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1335,13 +1335,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -1352,13 +1352,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -1369,13 +1369,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -1386,13 +1386,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -1403,13 +1403,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -1420,13 +1420,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -1437,13 +1437,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -1454,13 +1454,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1471,13 +1471,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -1488,16 +1488,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1505,16 +1505,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1522,16 +1522,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
         <v>26</v>
-      </c>
-      <c r="E51" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1539,16 +1539,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1556,16 +1556,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1573,16 +1573,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1590,16 +1590,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1607,16 +1607,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1624,13 +1624,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -1641,13 +1641,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -1658,13 +1658,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -1675,13 +1675,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -1692,13 +1692,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -1709,13 +1709,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -1726,13 +1726,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -1743,13 +1743,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -1760,13 +1760,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -1777,13 +1777,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -1794,13 +1794,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -1811,13 +1811,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -1828,13 +1828,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -1845,13 +1845,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -1862,13 +1862,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -1879,13 +1879,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -1896,16 +1896,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1913,16 +1913,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1930,16 +1930,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D75" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1947,16 +1947,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D76" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" t="s">
         <v>69</v>
-      </c>
-      <c r="F76" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -1964,16 +1964,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F77" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -1981,16 +1981,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" t="s">
         <v>76</v>
       </c>
-      <c r="C78" t="s">
-        <v>78</v>
-      </c>
-      <c r="D78" t="s">
-        <v>79</v>
-      </c>
       <c r="F78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -1998,16 +1998,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D79">
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2015,16 +2015,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" t="s">
         <v>83</v>
-      </c>
-      <c r="C80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" t="s">
-        <v>85</v>
-      </c>
-      <c r="F80" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2032,16 +2032,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D81">
         <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2049,16 +2049,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2066,16 +2066,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" t="s">
+        <v>90</v>
+      </c>
+      <c r="F83" t="s">
         <v>92</v>
-      </c>
-      <c r="D83" t="s">
-        <v>93</v>
-      </c>
-      <c r="F83" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
